--- a/biology/Botanique/Mirei_Shigemori/Mirei_Shigemori.xlsx
+++ b/biology/Botanique/Mirei_Shigemori/Mirei_Shigemori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirei Shigemori (1896-1975) était un concepteur de jardins japonais. Il est un des principaux acteurs du renouveau des jardins au Japon, et un des plus grands créateurs de jardins secs du XXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirei Shigemori est né en 1896 à Yoshikawa, un village de la préfecture d'Okayama, à l'ouest de Honshū. Durant son adolescence, il apprend l'art de la cérémonie du thé ainsi que l'ikebana. En 1917, il part à Tōkyō et étudie l'art. Après le tremblement de terre de Kantō de 1923, il rentre à Yoshikawa, puis s'installe à Kyōto en 1929.
 Entre 1930 et 1932, il publie Nihon Kadō Bijtsu Zenshū, les Œuvres complètes sur l'art d'arranger les fleurs, un recueil en neuf tomes sur l'ikebana. En 1933, il écrit Kyōto Bijutsu Taikan Teienhen, le volume consacré aux jardins du recueil Art à Kyōto, et entreprend à cette occasion sa première longue étude des jardins japonais. Il conçoit alors quelques jardins dans des résidences privées, autour de Kyōto et Ōsaka.
@@ -545,7 +559,9 @@
           <t>Œuvres majeures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardins :
 Tōfuku-ji à Kyōto (1939)
